--- a/05-Energy/battery_characteristic.xlsx
+++ b/05-Energy/battery_characteristic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fion\Desktop\ICL\Y2\EOY Project\EOY-Project\05-Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA65AA3F-487F-4645-99C8-382BF60DBD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32B679C-CDC7-49E2-BB91-A2218FD42434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FCB29C0A-5EFC-414A-AA0D-4A7847955301}"/>
   </bookViews>
@@ -35,12 +35,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Voltage</t>
   </si>
   <si>
     <t>Current (mA)</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>I(mA)</t>
+  </si>
+  <si>
+    <t>2s2p</t>
   </si>
 </sst>
 </file>
@@ -284,6 +296,181 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7F80-4862-A7A5-616FADCC1938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PV</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D42-4D44-BD1A-A91C1DC1F12D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1368,140 +1555,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD02571D-0C23-4DE1-88A2-0894266DD04E}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4.5</v>
       </c>
       <c r="B2">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>0.22</v>
+      </c>
+      <c r="S2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4.55</v>
       </c>
       <c r="B3">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>1.05</v>
+      </c>
+      <c r="S3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.5999999999999996</v>
       </c>
       <c r="B4">
         <v>233</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>2.11</v>
+      </c>
+      <c r="S4">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.6500000000000004</v>
       </c>
       <c r="B5">
         <v>365</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>3.15</v>
+      </c>
+      <c r="S5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.7</v>
       </c>
       <c r="B6">
         <v>508</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="S6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.75</v>
       </c>
       <c r="B7">
         <v>661</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>5.03</v>
+      </c>
+      <c r="S7">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4.8</v>
       </c>
       <c r="B8">
         <v>820</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>6.1</v>
+      </c>
+      <c r="S8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4.8499999999999996</v>
       </c>
       <c r="B9">
         <v>950</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>7.15</v>
+      </c>
+      <c r="S9">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.9000000000000004</v>
       </c>
       <c r="B10">
         <v>1130</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="S10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.95</v>
       </c>
       <c r="B11">
         <v>1260</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>9.16</v>
+      </c>
+      <c r="S11">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
         <v>1420</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>10.1</v>
+      </c>
+      <c r="S12">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5.05</v>
       </c>
       <c r="B13">
         <v>1555</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>10.5</v>
+      </c>
+      <c r="S13">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5.0999999999999996</v>
       </c>
       <c r="B14">
         <v>1710</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>10.84</v>
+      </c>
+      <c r="S14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5.15</v>
       </c>
       <c r="B15">
         <v>1863</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>11.1</v>
+      </c>
+      <c r="S15">
+        <v>250.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5.2</v>
       </c>
       <c r="B16">
         <v>1865</v>
+      </c>
+      <c r="R16">
+        <v>11.3</v>
+      </c>
+      <c r="S16">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>11.47</v>
+      </c>
+      <c r="S17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>11.57</v>
+      </c>
+      <c r="S18">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>11.58</v>
+      </c>
+      <c r="S19">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="20" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>11.64</v>
+      </c>
+      <c r="S20">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="21" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>11.69</v>
+      </c>
+      <c r="S21">
+        <v>51.4</v>
       </c>
     </row>
   </sheetData>
